--- a/trunk/EasiCab/Documents/ReviewLog/Design_ReviewLog.xlsx
+++ b/trunk/EasiCab/Documents/ReviewLog/Design_ReviewLog.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
   <si>
     <t>Status</t>
   </si>
@@ -417,6 +417,9 @@
       </rPr>
       <t xml:space="preserve"> of the defect, use intials of module to identify the module for which the defect is raised eg. Phase 1  or  phase 2 of EASiCab</t>
     </r>
+  </si>
+  <si>
+    <t>36</t>
   </si>
 </sst>
 </file>
@@ -1144,6 +1147,21 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1153,6 +1171,42 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1186,85 +1240,34 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1678,8 +1681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EW120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1875,23 +1878,23 @@
     <row r="4" spans="1:153" s="20" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
       <c r="B4" s="19"/>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
       <c r="R4" s="2"/>
       <c r="S4" s="23"/>
       <c r="T4" s="23"/>
@@ -2031,23 +2034,23 @@
     </row>
     <row r="5" spans="1:153" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="61"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63" t="s">
+      <c r="D5" s="78"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="65"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="82"/>
       <c r="P5" s="25" t="s">
         <v>28</v>
       </c>
@@ -2059,23 +2062,23 @@
     </row>
     <row r="6" spans="1:153" x14ac:dyDescent="0.2">
       <c r="B6" s="2"/>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="55">
+      <c r="D6" s="58"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="72">
         <v>42586</v>
       </c>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="57"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="74"/>
       <c r="P6" s="24" t="s">
         <v>29</v>
       </c>
@@ -2087,23 +2090,23 @@
     </row>
     <row r="7" spans="1:153" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="55" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="57"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="74"/>
       <c r="P7" s="31" t="s">
         <v>31</v>
       </c>
@@ -2115,23 +2118,23 @@
     </row>
     <row r="8" spans="1:153" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2"/>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="68" t="s">
+      <c r="D8" s="58"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
-      <c r="O8" s="70"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
+      <c r="J8" s="61"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="62"/>
       <c r="P8" s="27" t="s">
         <v>30</v>
       </c>
@@ -2141,23 +2144,23 @@
     </row>
     <row r="9" spans="1:153" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="72"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="74" t="s">
+      <c r="D9" s="64"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="88"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="88"/>
-      <c r="N9" s="88"/>
-      <c r="O9" s="89"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="68"/>
       <c r="P9" s="26" t="s">
         <v>15</v>
       </c>
@@ -2378,11 +2381,11 @@
       <c r="C12" s="29">
         <v>1</v>
       </c>
-      <c r="D12" s="90" t="s">
+      <c r="D12" s="52" t="s">
         <v>48</v>
       </c>
       <c r="E12" s="29"/>
-      <c r="F12" s="91" t="s">
+      <c r="F12" s="53" t="s">
         <v>60</v>
       </c>
       <c r="G12" s="30"/>
@@ -2394,7 +2397,7 @@
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="29"/>
-      <c r="L12" s="91">
+      <c r="L12" s="53">
         <v>36</v>
       </c>
       <c r="M12" s="51"/>
@@ -2403,7 +2406,7 @@
       <c r="P12" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="Q12" s="92">
+      <c r="Q12" s="54">
         <v>42586</v>
       </c>
       <c r="R12" s="3"/>
@@ -2414,7 +2417,7 @@
       <c r="C13" s="29">
         <v>2</v>
       </c>
-      <c r="D13" s="90" t="s">
+      <c r="D13" s="52" t="s">
         <v>48</v>
       </c>
       <c r="E13" s="50"/>
@@ -2430,14 +2433,16 @@
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
-      <c r="L13" s="51"/>
+      <c r="L13" s="51" t="s">
+        <v>63</v>
+      </c>
       <c r="M13" s="51"/>
       <c r="N13" s="51"/>
       <c r="O13" s="12"/>
       <c r="P13" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="Q13" s="92">
+      <c r="Q13" s="54">
         <v>42586</v>
       </c>
       <c r="R13" s="3"/>
@@ -2464,14 +2469,16 @@
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
-      <c r="L14" s="51"/>
+      <c r="L14" s="51" t="s">
+        <v>63</v>
+      </c>
       <c r="M14" s="51"/>
       <c r="N14" s="51"/>
       <c r="O14" s="12"/>
       <c r="P14" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="Q14" s="92">
+      <c r="Q14" s="54">
         <v>42586</v>
       </c>
       <c r="R14" s="3"/>
@@ -4562,27 +4569,27 @@
     </row>
     <row r="119" spans="2:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B119" s="2"/>
-      <c r="C119" s="76" t="s">
+      <c r="C119" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="D119" s="77"/>
+      <c r="D119" s="70"/>
       <c r="E119" s="35">
         <f>COUNTA(O13:O118)-COUNTIF(O13:O118,"Not a Defect")</f>
         <v>0</v>
       </c>
-      <c r="F119" s="78"/>
-      <c r="G119" s="78"/>
-      <c r="H119" s="78"/>
-      <c r="I119" s="78"/>
-      <c r="J119" s="78"/>
-      <c r="K119" s="78"/>
-      <c r="L119" s="78"/>
-      <c r="M119" s="78"/>
-      <c r="N119" s="78"/>
-      <c r="O119" s="78"/>
-      <c r="P119" s="66"/>
-      <c r="Q119" s="67"/>
-      <c r="R119" s="66"/>
+      <c r="F119" s="71"/>
+      <c r="G119" s="71"/>
+      <c r="H119" s="71"/>
+      <c r="I119" s="71"/>
+      <c r="J119" s="71"/>
+      <c r="K119" s="71"/>
+      <c r="L119" s="71"/>
+      <c r="M119" s="71"/>
+      <c r="N119" s="71"/>
+      <c r="O119" s="71"/>
+      <c r="P119" s="55"/>
+      <c r="Q119" s="56"/>
+      <c r="R119" s="55"/>
       <c r="S119" s="1"/>
     </row>
     <row r="120" spans="2:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4607,6 +4614,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:O7"/>
+    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:O5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:O6"/>
     <mergeCell ref="P119:R119"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:O8"/>
@@ -4614,13 +4628,6 @@
     <mergeCell ref="F9:O9"/>
     <mergeCell ref="C119:D119"/>
     <mergeCell ref="F119:O119"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:O7"/>
-    <mergeCell ref="C4:Q4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:O5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:O6"/>
   </mergeCells>
   <conditionalFormatting sqref="O50:O118 O20">
     <cfRule type="containsText" dxfId="14" priority="37" stopIfTrue="1" operator="containsText" text="Fixed">
@@ -4748,18 +4755,18 @@
     </row>
     <row r="3" spans="2:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19"/>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="88"/>
       <c r="M3" s="19"/>
     </row>
     <row r="4" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4767,17 +4774,17 @@
       <c r="C4" s="15">
         <v>1</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="87"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="89"/>
       <c r="M4" s="19"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
@@ -4785,17 +4792,17 @@
       <c r="C5" s="16">
         <v>2</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="79"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="85"/>
       <c r="M5" s="19"/>
     </row>
     <row r="6" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4803,17 +4810,17 @@
       <c r="C6" s="16">
         <v>3</v>
       </c>
-      <c r="D6" s="82" t="s">
+      <c r="D6" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="84"/>
       <c r="M6" s="19"/>
     </row>
     <row r="7" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4821,17 +4828,17 @@
       <c r="C7" s="16">
         <v>4</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="79"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="85"/>
       <c r="M7" s="19"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -4839,17 +4846,17 @@
       <c r="C8" s="16">
         <v>5</v>
       </c>
-      <c r="D8" s="82" t="s">
+      <c r="D8" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="84"/>
       <c r="M8" s="19"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
@@ -4857,17 +4864,17 @@
       <c r="C9" s="16">
         <v>6</v>
       </c>
-      <c r="D9" s="82" t="s">
+      <c r="D9" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="82"/>
-      <c r="K9" s="82"/>
-      <c r="L9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="84"/>
       <c r="M9" s="19"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
@@ -4877,15 +4884,15 @@
       <c r="E10" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="68" t="s">
+      <c r="F10" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="79"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="61"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="85"/>
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
@@ -4895,15 +4902,15 @@
       <c r="E11" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="79"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="85"/>
       <c r="M11" s="19"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
@@ -4913,15 +4920,15 @@
       <c r="E12" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="68" t="s">
+      <c r="F12" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="79"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="85"/>
       <c r="M12" s="19"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
@@ -4931,15 +4938,15 @@
       <c r="E13" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="68" t="s">
+      <c r="F13" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="79"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="85"/>
       <c r="M13" s="19"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
@@ -4949,15 +4956,15 @@
       <c r="E14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="68" t="s">
+      <c r="F14" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="79"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="85"/>
       <c r="M14" s="19"/>
     </row>
     <row r="15" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -4965,17 +4972,17 @@
       <c r="C15" s="17">
         <v>7</v>
       </c>
-      <c r="D15" s="68" t="s">
+      <c r="D15" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="79"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="85"/>
       <c r="M15" s="19"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
@@ -4983,17 +4990,17 @@
       <c r="C16" s="17">
         <v>8</v>
       </c>
-      <c r="D16" s="68" t="s">
+      <c r="D16" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="79"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="85"/>
       <c r="M16" s="19"/>
     </row>
     <row r="17" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5001,17 +5008,17 @@
       <c r="C17" s="21">
         <v>9</v>
       </c>
-      <c r="D17" s="80" t="s">
+      <c r="D17" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="81"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="91"/>
+      <c r="L17" s="92"/>
       <c r="M17" s="19"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
@@ -5030,6 +5037,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="D15:L15"/>
     <mergeCell ref="D9:L9"/>
     <mergeCell ref="F10:L10"/>
     <mergeCell ref="C3:L3"/>
@@ -5038,13 +5052,6 @@
     <mergeCell ref="D7:L7"/>
     <mergeCell ref="D6:L6"/>
     <mergeCell ref="D8:L8"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="F13:L13"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="D15:L15"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.41" right="0.45" top="0.57999999999999996" bottom="0.41" header="0.32" footer="0.33"/>

--- a/trunk/EasiCab/Documents/ReviewLog/Design_ReviewLog.xlsx
+++ b/trunk/EasiCab/Documents/ReviewLog/Design_ReviewLog.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
   <si>
     <t>Status</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>Verified</t>
-  </si>
-  <si>
-    <t>Verification Date</t>
   </si>
   <si>
     <t>Not a Defect</t>
@@ -420,6 +417,18 @@
   </si>
   <si>
     <t>36</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Verification_date</t>
+  </si>
+  <si>
+    <t>Closed_date</t>
+  </si>
+  <si>
+    <t>52</t>
   </si>
 </sst>
 </file>
@@ -542,7 +551,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -989,6 +998,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -998,7 +1016,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1156,6 +1174,12 @@
     <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1269,6 +1293,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1679,10 +1715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EW120"/>
+  <dimension ref="A1:EX120"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1693,25 +1729,24 @@
     <col min="4" max="4" width="23.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="37" style="1" customWidth="1"/>
     <col min="6" max="8" width="49.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="15.42578125" style="1" customWidth="1"/>
     <col min="11" max="12" width="15" style="1" customWidth="1"/>
     <col min="13" max="13" width="13.42578125" style="1" customWidth="1"/>
     <col min="14" max="14" width="15" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="26.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="28.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="28.28515625" style="10" customWidth="1"/>
-    <col min="18" max="18" width="13.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" style="10" customWidth="1"/>
-    <col min="20" max="20" width="2.140625" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="17" width="28.28515625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="28.28515625" style="10" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="12.140625" style="10" customWidth="1"/>
+    <col min="21" max="21" width="2.140625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:153" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:153" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:154" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:154" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1726,11 +1761,12 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="1"/>
-    </row>
-    <row r="3" spans="1:153" s="20" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q2" s="2"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:154" s="20" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
       <c r="B3" s="19"/>
       <c r="C3" s="2"/>
@@ -1747,8 +1783,8 @@
       <c r="N3" s="23"/>
       <c r="O3" s="23"/>
       <c r="P3" s="23"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="42"/>
       <c r="S3" s="23"/>
       <c r="T3" s="23"/>
       <c r="U3" s="23"/>
@@ -1874,29 +1910,30 @@
       <c r="EK3" s="23"/>
       <c r="EL3" s="23"/>
       <c r="EM3" s="23"/>
-    </row>
-    <row r="4" spans="1:153" s="20" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="EN3" s="23"/>
+    </row>
+    <row r="4" spans="1:154" s="20" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
       <c r="B4" s="19"/>
-      <c r="C4" s="75" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="23"/>
+      <c r="C4" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="2"/>
       <c r="T4" s="23"/>
       <c r="U4" s="23"/>
       <c r="V4" s="23"/>
@@ -2031,150 +2068,156 @@
       <c r="EU4" s="23"/>
       <c r="EV4" s="23"/>
       <c r="EW4" s="23"/>
-    </row>
-    <row r="5" spans="1:153" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="EX4" s="23"/>
+    </row>
+    <row r="5" spans="1:154" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
-      <c r="C5" s="77" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="78"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="80" t="s">
+      <c r="C5" s="79" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="80"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="S5" s="2"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:154" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+      <c r="C6" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="60"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="74">
+        <v>42586</v>
+      </c>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="S6" s="2"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:154" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="2"/>
+      <c r="C7" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="60"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="43" t="s">
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="R5" s="2"/>
-      <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="1:153" x14ac:dyDescent="0.2">
-      <c r="B6" s="2"/>
-      <c r="C6" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="72">
-        <v>42586</v>
-      </c>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="74"/>
-      <c r="P6" s="24" t="s">
+      <c r="S7" s="2"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:154" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="2"/>
+      <c r="C8" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="60"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="44" t="s">
+      <c r="Q8" s="27"/>
+      <c r="R8" s="44"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:154" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="66"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="R6" s="2"/>
-      <c r="S6" s="1"/>
-    </row>
-    <row r="7" spans="1:153" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="2"/>
-      <c r="C7" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q7" s="44" t="s">
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="R7" s="2"/>
-      <c r="S7" s="1"/>
-    </row>
-    <row r="8" spans="1:153" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="2"/>
-      <c r="C8" s="57" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="1"/>
-    </row>
-    <row r="9" spans="1:153" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q9" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="R9" s="2"/>
-      <c r="S9" s="1"/>
-    </row>
-    <row r="10" spans="1:153" s="20" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S9" s="2"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:154" s="20" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23"/>
       <c r="B10" s="19"/>
       <c r="C10" s="47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D10" s="49"/>
       <c r="E10" s="49"/>
@@ -2182,16 +2225,16 @@
       <c r="G10" s="49"/>
       <c r="H10" s="49"/>
       <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
+      <c r="J10" s="55"/>
       <c r="K10" s="49"/>
       <c r="L10" s="49"/>
       <c r="M10" s="49"/>
       <c r="N10" s="49"/>
       <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="23"/>
+      <c r="P10" s="97"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="2"/>
       <c r="T10" s="23"/>
       <c r="U10" s="23"/>
       <c r="V10" s="23"/>
@@ -2326,165 +2369,190 @@
       <c r="EU10" s="23"/>
       <c r="EV10" s="23"/>
       <c r="EW10" s="23"/>
-    </row>
-    <row r="11" spans="1:153" s="9" customFormat="1" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="EX10" s="23"/>
+    </row>
+    <row r="11" spans="1:154" s="9" customFormat="1" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="C11" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="K11" s="14" t="s">
+      <c r="P11" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="O11" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="P11" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="R11" s="8"/>
-    </row>
-    <row r="12" spans="1:153" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q11" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="R11" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="S11" s="8"/>
+    </row>
+    <row r="12" spans="1:154" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
       <c r="C12" s="29">
         <v>1</v>
       </c>
       <c r="D12" s="52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="29"/>
       <c r="F12" s="53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G12" s="30"/>
       <c r="H12" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="I12" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="J12" s="6"/>
       <c r="K12" s="29"/>
       <c r="L12" s="53">
         <v>36</v>
       </c>
-      <c r="M12" s="51"/>
+      <c r="M12" s="51" t="s">
+        <v>66</v>
+      </c>
       <c r="N12" s="51"/>
       <c r="O12" s="12"/>
       <c r="P12" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q12" s="54">
+        <v>48</v>
+      </c>
+      <c r="Q12" s="96">
         <v>42586</v>
       </c>
-      <c r="R12" s="3"/>
-      <c r="S12" s="1"/>
-    </row>
-    <row r="13" spans="1:153" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R12" s="54">
+        <v>42591</v>
+      </c>
+      <c r="S12" s="3"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:154" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="29">
         <v>2</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E13" s="50"/>
       <c r="F13" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G13" s="30"/>
       <c r="H13" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="I13" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="J13" s="6"/>
+        <v>55</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="39" t="s">
+        <v>53</v>
+      </c>
       <c r="K13" s="6"/>
       <c r="L13" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="M13" s="51"/>
+        <v>62</v>
+      </c>
+      <c r="M13" s="51" t="s">
+        <v>66</v>
+      </c>
       <c r="N13" s="51"/>
       <c r="O13" s="12"/>
       <c r="P13" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q13" s="54">
+        <v>48</v>
+      </c>
+      <c r="Q13" s="96">
         <v>42586</v>
       </c>
-      <c r="R13" s="3"/>
-      <c r="S13" s="1"/>
-    </row>
-    <row r="14" spans="1:153" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R13" s="54">
+        <v>42591</v>
+      </c>
+      <c r="S13" s="3"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:154" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2"/>
       <c r="C14" s="29">
         <v>3</v>
       </c>
-      <c r="D14" s="29" t="s">
-        <v>48</v>
+      <c r="D14" s="52" t="s">
+        <v>47</v>
       </c>
       <c r="E14" s="50"/>
       <c r="F14" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G14" s="30"/>
       <c r="H14" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="J14" s="6"/>
+        <v>58</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="39" t="s">
+        <v>53</v>
+      </c>
       <c r="K14" s="6"/>
       <c r="L14" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="M14" s="51"/>
+        <v>62</v>
+      </c>
+      <c r="M14" s="51" t="s">
+        <v>66</v>
+      </c>
       <c r="N14" s="51"/>
       <c r="O14" s="12"/>
       <c r="P14" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q14" s="54">
+        <v>48</v>
+      </c>
+      <c r="Q14" s="96">
         <v>42586</v>
       </c>
-      <c r="R14" s="3"/>
-      <c r="S14" s="1"/>
-    </row>
-    <row r="15" spans="1:153" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R14" s="54">
+        <v>42592</v>
+      </c>
+      <c r="S14" s="3"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:154" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
@@ -2493,18 +2561,19 @@
       <c r="G15" s="30"/>
       <c r="H15" s="12"/>
       <c r="I15" s="39"/>
-      <c r="J15" s="6"/>
+      <c r="J15" s="39"/>
       <c r="K15" s="6"/>
       <c r="L15" s="51"/>
       <c r="M15" s="51"/>
       <c r="N15" s="51"/>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="1"/>
-    </row>
-    <row r="16" spans="1:153" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q15" s="12"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:154" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2"/>
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
@@ -2513,18 +2582,19 @@
       <c r="G16" s="30"/>
       <c r="H16" s="12"/>
       <c r="I16" s="39"/>
-      <c r="J16" s="6"/>
+      <c r="J16" s="39"/>
       <c r="K16" s="6"/>
       <c r="L16" s="51"/>
       <c r="M16" s="51"/>
       <c r="N16" s="51"/>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="1"/>
-    </row>
-    <row r="17" spans="2:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q16" s="12"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="2:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2"/>
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
@@ -2533,18 +2603,19 @@
       <c r="G17" s="30"/>
       <c r="H17" s="12"/>
       <c r="I17" s="39"/>
-      <c r="J17" s="6"/>
+      <c r="J17" s="39"/>
       <c r="K17" s="6"/>
       <c r="L17" s="51"/>
       <c r="M17" s="51"/>
       <c r="N17" s="51"/>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="1"/>
-    </row>
-    <row r="18" spans="2:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q17" s="12"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="2:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="2"/>
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
@@ -2553,18 +2624,19 @@
       <c r="G18" s="30"/>
       <c r="H18" s="12"/>
       <c r="I18" s="39"/>
-      <c r="J18" s="6"/>
+      <c r="J18" s="39"/>
       <c r="K18" s="6"/>
       <c r="L18" s="51"/>
       <c r="M18" s="51"/>
       <c r="N18" s="51"/>
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="1"/>
-    </row>
-    <row r="19" spans="2:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q18" s="12"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="2:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
@@ -2573,18 +2645,19 @@
       <c r="G19" s="30"/>
       <c r="H19" s="12"/>
       <c r="I19" s="39"/>
-      <c r="J19" s="6"/>
+      <c r="J19" s="39"/>
       <c r="K19" s="6"/>
       <c r="L19" s="51"/>
       <c r="M19" s="51"/>
       <c r="N19" s="51"/>
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="1"/>
-    </row>
-    <row r="20" spans="2:20" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q19" s="12"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="2:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
@@ -2593,18 +2666,19 @@
       <c r="G20" s="30"/>
       <c r="H20" s="12"/>
       <c r="I20" s="39"/>
-      <c r="J20" s="6"/>
+      <c r="J20" s="39"/>
       <c r="K20" s="6"/>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="1"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="Q20" s="12"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
@@ -2613,18 +2687,19 @@
       <c r="G21" s="30"/>
       <c r="H21" s="12"/>
       <c r="I21" s="39"/>
-      <c r="J21" s="6"/>
+      <c r="J21" s="39"/>
       <c r="K21" s="6"/>
       <c r="L21" s="12"/>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="1"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="Q21" s="12"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="1"/>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="29"/>
       <c r="D22" s="29"/>
@@ -2633,18 +2708,19 @@
       <c r="G22" s="30"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
-      <c r="J22" s="6"/>
+      <c r="J22" s="12"/>
       <c r="K22" s="6"/>
       <c r="L22" s="12"/>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="1"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="Q22" s="12"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="1"/>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="C23" s="29"/>
       <c r="D23" s="29"/>
@@ -2653,18 +2729,19 @@
       <c r="G23" s="30"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
-      <c r="J23" s="6"/>
+      <c r="J23" s="12"/>
       <c r="K23" s="6"/>
       <c r="L23" s="12"/>
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="1"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="Q23" s="12"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="1"/>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B24" s="2"/>
       <c r="C24" s="29"/>
       <c r="D24" s="29"/>
@@ -2673,18 +2750,19 @@
       <c r="G24" s="30"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12"/>
-      <c r="J24" s="6"/>
+      <c r="J24" s="12"/>
       <c r="K24" s="6"/>
       <c r="L24" s="12"/>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="1"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="Q24" s="12"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="1"/>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B25" s="2"/>
       <c r="C25" s="29"/>
       <c r="D25" s="29"/>
@@ -2693,21 +2771,22 @@
       <c r="G25" s="30"/>
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
-      <c r="J25" s="6"/>
+      <c r="J25" s="12"/>
       <c r="K25" s="6"/>
       <c r="L25" s="12"/>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="Q25" s="12"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="29"/>
       <c r="D26" s="29"/>
@@ -2716,18 +2795,19 @@
       <c r="G26" s="30"/>
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
-      <c r="J26" s="6"/>
+      <c r="J26" s="12"/>
       <c r="K26" s="6"/>
       <c r="L26" s="12"/>
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
       <c r="O26" s="12"/>
       <c r="P26" s="12"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="1"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="Q26" s="12"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="1"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
@@ -2736,18 +2816,19 @@
       <c r="G27" s="30"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
-      <c r="J27" s="6"/>
+      <c r="J27" s="12"/>
       <c r="K27" s="6"/>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
       <c r="O27" s="12"/>
       <c r="P27" s="12"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="1"/>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="Q27" s="12"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="1"/>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="29"/>
       <c r="D28" s="29"/>
@@ -2756,18 +2837,19 @@
       <c r="G28" s="30"/>
       <c r="H28" s="12"/>
       <c r="I28" s="12"/>
-      <c r="J28" s="6"/>
+      <c r="J28" s="12"/>
       <c r="K28" s="6"/>
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
       <c r="O28" s="12"/>
       <c r="P28" s="12"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="1"/>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="Q28" s="12"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="1"/>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="29"/>
       <c r="D29" s="29"/>
@@ -2776,18 +2858,19 @@
       <c r="G29" s="30"/>
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
-      <c r="J29" s="6"/>
+      <c r="J29" s="12"/>
       <c r="K29" s="6"/>
       <c r="L29" s="12"/>
       <c r="M29" s="12"/>
       <c r="N29" s="12"/>
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="1"/>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="Q29" s="12"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="1"/>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="29"/>
       <c r="D30" s="29"/>
@@ -2796,18 +2879,19 @@
       <c r="G30" s="30"/>
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
-      <c r="J30" s="6"/>
+      <c r="J30" s="12"/>
       <c r="K30" s="6"/>
       <c r="L30" s="12"/>
       <c r="M30" s="12"/>
       <c r="N30" s="12"/>
       <c r="O30" s="12"/>
       <c r="P30" s="12"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="1"/>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="Q30" s="12"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="1"/>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="29"/>
       <c r="D31" s="29"/>
@@ -2823,11 +2907,12 @@
       <c r="N31" s="12"/>
       <c r="O31" s="12"/>
       <c r="P31" s="12"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="1"/>
-    </row>
-    <row r="32" spans="2:20" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q31" s="12"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="1"/>
+    </row>
+    <row r="32" spans="2:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="C32" s="29"/>
       <c r="D32" s="29"/>
@@ -2843,11 +2928,12 @@
       <c r="N32" s="12"/>
       <c r="O32" s="12"/>
       <c r="P32" s="18"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="1"/>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q32" s="18"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="1"/>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="C33" s="29"/>
       <c r="D33" s="29"/>
@@ -2863,11 +2949,12 @@
       <c r="N33" s="12"/>
       <c r="O33" s="12"/>
       <c r="P33" s="18"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="1"/>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q33" s="18"/>
+      <c r="R33" s="33"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="1"/>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="29"/>
       <c r="D34" s="29"/>
@@ -2883,11 +2970,12 @@
       <c r="N34" s="12"/>
       <c r="O34" s="12"/>
       <c r="P34" s="18"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="1"/>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q34" s="18"/>
+      <c r="R34" s="33"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="1"/>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="C35" s="29"/>
       <c r="D35" s="29"/>
@@ -2903,11 +2991,12 @@
       <c r="N35" s="12"/>
       <c r="O35" s="12"/>
       <c r="P35" s="18"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="1"/>
-    </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q35" s="18"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="1"/>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="C36" s="29"/>
       <c r="D36" s="29"/>
@@ -2923,11 +3012,12 @@
       <c r="N36" s="12"/>
       <c r="O36" s="12"/>
       <c r="P36" s="18"/>
-      <c r="Q36" s="46"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="1"/>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q36" s="18"/>
+      <c r="R36" s="46"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="1"/>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="29"/>
       <c r="D37" s="29"/>
@@ -2943,11 +3033,12 @@
       <c r="N37" s="12"/>
       <c r="O37" s="12"/>
       <c r="P37" s="18"/>
-      <c r="Q37" s="46"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="1"/>
-    </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q37" s="18"/>
+      <c r="R37" s="46"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="1"/>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="29"/>
       <c r="D38" s="29"/>
@@ -2963,11 +3054,12 @@
       <c r="N38" s="12"/>
       <c r="O38" s="12"/>
       <c r="P38" s="18"/>
-      <c r="Q38" s="46"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="1"/>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q38" s="18"/>
+      <c r="R38" s="46"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="1"/>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="29"/>
       <c r="D39" s="29"/>
@@ -2983,11 +3075,12 @@
       <c r="N39" s="12"/>
       <c r="O39" s="12"/>
       <c r="P39" s="18"/>
-      <c r="Q39" s="46"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="1"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q39" s="18"/>
+      <c r="R39" s="46"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="1"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="29"/>
       <c r="D40" s="29"/>
@@ -3003,11 +3096,12 @@
       <c r="N40" s="12"/>
       <c r="O40" s="12"/>
       <c r="P40" s="18"/>
-      <c r="Q40" s="46"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="1"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q40" s="18"/>
+      <c r="R40" s="46"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="1"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="C41" s="29"/>
       <c r="D41" s="29"/>
@@ -3023,11 +3117,12 @@
       <c r="N41" s="12"/>
       <c r="O41" s="12"/>
       <c r="P41" s="18"/>
-      <c r="Q41" s="46"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="1"/>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q41" s="18"/>
+      <c r="R41" s="46"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="1"/>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
       <c r="C42" s="29"/>
       <c r="D42" s="29"/>
@@ -3043,11 +3138,12 @@
       <c r="N42" s="12"/>
       <c r="O42" s="12"/>
       <c r="P42" s="18"/>
-      <c r="Q42" s="46"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="1"/>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q42" s="18"/>
+      <c r="R42" s="46"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="1"/>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
       <c r="C43" s="29"/>
       <c r="D43" s="29"/>
@@ -3063,11 +3159,12 @@
       <c r="N43" s="12"/>
       <c r="O43" s="12"/>
       <c r="P43" s="18"/>
-      <c r="Q43" s="46"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="1"/>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q43" s="18"/>
+      <c r="R43" s="46"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="1"/>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
       <c r="C44" s="29"/>
       <c r="D44" s="29"/>
@@ -3083,11 +3180,12 @@
       <c r="N44" s="12"/>
       <c r="O44" s="12"/>
       <c r="P44" s="18"/>
-      <c r="Q44" s="46"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="1"/>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q44" s="18"/>
+      <c r="R44" s="46"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="1"/>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
       <c r="C45" s="29"/>
       <c r="D45" s="29"/>
@@ -3096,18 +3194,19 @@
       <c r="G45" s="30"/>
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
-      <c r="J45" s="6"/>
+      <c r="J45" s="12"/>
       <c r="K45" s="6"/>
       <c r="L45" s="12"/>
       <c r="M45" s="12"/>
       <c r="N45" s="12"/>
       <c r="O45" s="12"/>
       <c r="P45" s="12"/>
-      <c r="Q45" s="46"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="1"/>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q45" s="12"/>
+      <c r="R45" s="46"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="1"/>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B46" s="2"/>
       <c r="C46" s="29"/>
       <c r="D46" s="29"/>
@@ -3116,18 +3215,19 @@
       <c r="G46" s="30"/>
       <c r="H46" s="12"/>
       <c r="I46" s="12"/>
-      <c r="J46" s="6"/>
+      <c r="J46" s="12"/>
       <c r="K46" s="6"/>
       <c r="L46" s="12"/>
       <c r="M46" s="12"/>
       <c r="N46" s="12"/>
       <c r="O46" s="12"/>
       <c r="P46" s="12"/>
-      <c r="Q46" s="46"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="1"/>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q46" s="12"/>
+      <c r="R46" s="46"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="1"/>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B47" s="2"/>
       <c r="C47" s="29"/>
       <c r="D47" s="29"/>
@@ -3136,18 +3236,19 @@
       <c r="G47" s="30"/>
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
-      <c r="J47" s="6"/>
+      <c r="J47" s="12"/>
       <c r="K47" s="6"/>
       <c r="L47" s="12"/>
       <c r="M47" s="12"/>
       <c r="N47" s="12"/>
       <c r="O47" s="12"/>
       <c r="P47" s="12"/>
-      <c r="Q47" s="46"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="1"/>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q47" s="12"/>
+      <c r="R47" s="46"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="1"/>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B48" s="2"/>
       <c r="C48" s="29"/>
       <c r="D48" s="29"/>
@@ -3156,18 +3257,19 @@
       <c r="G48" s="30"/>
       <c r="H48" s="12"/>
       <c r="I48" s="12"/>
-      <c r="J48" s="6"/>
+      <c r="J48" s="12"/>
       <c r="K48" s="6"/>
       <c r="L48" s="12"/>
       <c r="M48" s="12"/>
       <c r="N48" s="12"/>
       <c r="O48" s="12"/>
       <c r="P48" s="12"/>
-      <c r="Q48" s="46"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="1"/>
-    </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q48" s="12"/>
+      <c r="R48" s="46"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="1"/>
+    </row>
+    <row r="49" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B49" s="2"/>
       <c r="C49" s="29"/>
       <c r="D49" s="29"/>
@@ -3183,11 +3285,12 @@
       <c r="N49" s="12"/>
       <c r="O49" s="12"/>
       <c r="P49" s="12"/>
-      <c r="Q49" s="46"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="1"/>
-    </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q49" s="12"/>
+      <c r="R49" s="46"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="1"/>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B50" s="2"/>
       <c r="C50" s="38"/>
       <c r="D50" s="29"/>
@@ -3203,11 +3306,12 @@
       <c r="N50" s="12"/>
       <c r="O50" s="12"/>
       <c r="P50" s="18"/>
-      <c r="Q50" s="34"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="1"/>
-    </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q50" s="18"/>
+      <c r="R50" s="34"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="1"/>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B51" s="2"/>
       <c r="C51" s="38"/>
       <c r="D51" s="29"/>
@@ -3223,11 +3327,12 @@
       <c r="N51" s="12"/>
       <c r="O51" s="12"/>
       <c r="P51" s="18"/>
-      <c r="Q51" s="34"/>
-      <c r="R51" s="3"/>
-      <c r="S51" s="1"/>
-    </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q51" s="18"/>
+      <c r="R51" s="34"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="1"/>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B52" s="2"/>
       <c r="C52" s="38"/>
       <c r="D52" s="29"/>
@@ -3243,11 +3348,12 @@
       <c r="N52" s="12"/>
       <c r="O52" s="12"/>
       <c r="P52" s="18"/>
-      <c r="Q52" s="34"/>
-      <c r="R52" s="3"/>
-      <c r="S52" s="1"/>
-    </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q52" s="18"/>
+      <c r="R52" s="34"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="1"/>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B53" s="2"/>
       <c r="C53" s="38"/>
       <c r="D53" s="29"/>
@@ -3263,11 +3369,12 @@
       <c r="N53" s="12"/>
       <c r="O53" s="12"/>
       <c r="P53" s="18"/>
-      <c r="Q53" s="34"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="1"/>
-    </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q53" s="18"/>
+      <c r="R53" s="34"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="1"/>
+    </row>
+    <row r="54" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B54" s="2"/>
       <c r="C54" s="38"/>
       <c r="D54" s="29"/>
@@ -3283,11 +3390,12 @@
       <c r="N54" s="12"/>
       <c r="O54" s="12"/>
       <c r="P54" s="18"/>
-      <c r="Q54" s="34"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="1"/>
-    </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q54" s="18"/>
+      <c r="R54" s="34"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="1"/>
+    </row>
+    <row r="55" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B55" s="2"/>
       <c r="C55" s="38"/>
       <c r="D55" s="29"/>
@@ -3303,11 +3411,12 @@
       <c r="N55" s="12"/>
       <c r="O55" s="12"/>
       <c r="P55" s="18"/>
-      <c r="Q55" s="34"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="1"/>
-    </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q55" s="18"/>
+      <c r="R55" s="34"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="1"/>
+    </row>
+    <row r="56" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B56" s="2"/>
       <c r="C56" s="38"/>
       <c r="D56" s="29"/>
@@ -3323,11 +3432,12 @@
       <c r="N56" s="12"/>
       <c r="O56" s="12"/>
       <c r="P56" s="18"/>
-      <c r="Q56" s="34"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="1"/>
-    </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q56" s="18"/>
+      <c r="R56" s="34"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="1"/>
+    </row>
+    <row r="57" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B57" s="2"/>
       <c r="C57" s="38"/>
       <c r="D57" s="29"/>
@@ -3343,11 +3453,12 @@
       <c r="N57" s="12"/>
       <c r="O57" s="12"/>
       <c r="P57" s="18"/>
-      <c r="Q57" s="34"/>
-      <c r="R57" s="3"/>
-      <c r="S57" s="1"/>
-    </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q57" s="18"/>
+      <c r="R57" s="34"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="1"/>
+    </row>
+    <row r="58" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B58" s="2"/>
       <c r="C58" s="38"/>
       <c r="D58" s="29"/>
@@ -3363,11 +3474,12 @@
       <c r="N58" s="12"/>
       <c r="O58" s="12"/>
       <c r="P58" s="18"/>
-      <c r="Q58" s="34"/>
-      <c r="R58" s="3"/>
-      <c r="S58" s="1"/>
-    </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q58" s="18"/>
+      <c r="R58" s="34"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="1"/>
+    </row>
+    <row r="59" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B59" s="2"/>
       <c r="C59" s="38"/>
       <c r="D59" s="29"/>
@@ -3383,11 +3495,12 @@
       <c r="N59" s="12"/>
       <c r="O59" s="12"/>
       <c r="P59" s="18"/>
-      <c r="Q59" s="34"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="1"/>
-    </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q59" s="18"/>
+      <c r="R59" s="34"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="1"/>
+    </row>
+    <row r="60" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B60" s="2"/>
       <c r="C60" s="38"/>
       <c r="D60" s="29"/>
@@ -3403,11 +3516,12 @@
       <c r="N60" s="12"/>
       <c r="O60" s="12"/>
       <c r="P60" s="18"/>
-      <c r="Q60" s="34"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="1"/>
-    </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q60" s="18"/>
+      <c r="R60" s="34"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="1"/>
+    </row>
+    <row r="61" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B61" s="2"/>
       <c r="C61" s="38"/>
       <c r="D61" s="29"/>
@@ -3423,11 +3537,12 @@
       <c r="N61" s="12"/>
       <c r="O61" s="12"/>
       <c r="P61" s="18"/>
-      <c r="Q61" s="34"/>
-      <c r="R61" s="3"/>
-      <c r="S61" s="1"/>
-    </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q61" s="18"/>
+      <c r="R61" s="34"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="1"/>
+    </row>
+    <row r="62" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B62" s="2"/>
       <c r="C62" s="38"/>
       <c r="D62" s="29"/>
@@ -3443,11 +3558,12 @@
       <c r="N62" s="12"/>
       <c r="O62" s="12"/>
       <c r="P62" s="18"/>
-      <c r="Q62" s="34"/>
-      <c r="R62" s="3"/>
-      <c r="S62" s="1"/>
-    </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q62" s="18"/>
+      <c r="R62" s="34"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="1"/>
+    </row>
+    <row r="63" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B63" s="2"/>
       <c r="C63" s="38"/>
       <c r="D63" s="29"/>
@@ -3463,11 +3579,12 @@
       <c r="N63" s="12"/>
       <c r="O63" s="12"/>
       <c r="P63" s="18"/>
-      <c r="Q63" s="34"/>
-      <c r="R63" s="3"/>
-      <c r="S63" s="1"/>
-    </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q63" s="18"/>
+      <c r="R63" s="34"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="1"/>
+    </row>
+    <row r="64" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B64" s="2"/>
       <c r="C64" s="38"/>
       <c r="D64" s="29"/>
@@ -3483,11 +3600,12 @@
       <c r="N64" s="12"/>
       <c r="O64" s="12"/>
       <c r="P64" s="18"/>
-      <c r="Q64" s="34"/>
-      <c r="R64" s="3"/>
-      <c r="S64" s="1"/>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q64" s="18"/>
+      <c r="R64" s="34"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="1"/>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B65" s="2"/>
       <c r="C65" s="38"/>
       <c r="D65" s="29"/>
@@ -3503,11 +3621,12 @@
       <c r="N65" s="12"/>
       <c r="O65" s="12"/>
       <c r="P65" s="18"/>
-      <c r="Q65" s="34"/>
-      <c r="R65" s="3"/>
-      <c r="S65" s="1"/>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q65" s="18"/>
+      <c r="R65" s="34"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="1"/>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B66" s="2"/>
       <c r="C66" s="38"/>
       <c r="D66" s="29"/>
@@ -3523,11 +3642,12 @@
       <c r="N66" s="12"/>
       <c r="O66" s="12"/>
       <c r="P66" s="18"/>
-      <c r="Q66" s="34"/>
-      <c r="R66" s="3"/>
-      <c r="S66" s="1"/>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q66" s="18"/>
+      <c r="R66" s="34"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="1"/>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B67" s="2"/>
       <c r="C67" s="38"/>
       <c r="D67" s="29"/>
@@ -3543,11 +3663,12 @@
       <c r="N67" s="12"/>
       <c r="O67" s="12"/>
       <c r="P67" s="18"/>
-      <c r="Q67" s="34"/>
-      <c r="R67" s="3"/>
-      <c r="S67" s="1"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q67" s="18"/>
+      <c r="R67" s="34"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="1"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B68" s="2"/>
       <c r="C68" s="38"/>
       <c r="D68" s="29"/>
@@ -3563,11 +3684,12 @@
       <c r="N68" s="12"/>
       <c r="O68" s="12"/>
       <c r="P68" s="18"/>
-      <c r="Q68" s="34"/>
-      <c r="R68" s="3"/>
-      <c r="S68" s="1"/>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q68" s="18"/>
+      <c r="R68" s="34"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="1"/>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B69" s="2"/>
       <c r="C69" s="38"/>
       <c r="D69" s="29"/>
@@ -3583,11 +3705,12 @@
       <c r="N69" s="12"/>
       <c r="O69" s="12"/>
       <c r="P69" s="18"/>
-      <c r="Q69" s="34"/>
-      <c r="R69" s="3"/>
-      <c r="S69" s="1"/>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q69" s="18"/>
+      <c r="R69" s="34"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="1"/>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B70" s="2"/>
       <c r="C70" s="38"/>
       <c r="D70" s="29"/>
@@ -3603,11 +3726,12 @@
       <c r="N70" s="12"/>
       <c r="O70" s="12"/>
       <c r="P70" s="18"/>
-      <c r="Q70" s="34"/>
-      <c r="R70" s="3"/>
-      <c r="S70" s="1"/>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q70" s="18"/>
+      <c r="R70" s="34"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="1"/>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B71" s="2"/>
       <c r="C71" s="38"/>
       <c r="D71" s="29"/>
@@ -3623,11 +3747,12 @@
       <c r="N71" s="12"/>
       <c r="O71" s="12"/>
       <c r="P71" s="18"/>
-      <c r="Q71" s="34"/>
-      <c r="R71" s="3"/>
-      <c r="S71" s="1"/>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q71" s="18"/>
+      <c r="R71" s="34"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="1"/>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B72" s="2"/>
       <c r="C72" s="38"/>
       <c r="D72" s="29"/>
@@ -3643,11 +3768,12 @@
       <c r="N72" s="12"/>
       <c r="O72" s="12"/>
       <c r="P72" s="18"/>
-      <c r="Q72" s="34"/>
-      <c r="R72" s="3"/>
-      <c r="S72" s="1"/>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q72" s="18"/>
+      <c r="R72" s="34"/>
+      <c r="S72" s="3"/>
+      <c r="T72" s="1"/>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B73" s="2"/>
       <c r="C73" s="38"/>
       <c r="D73" s="29"/>
@@ -3663,11 +3789,12 @@
       <c r="N73" s="12"/>
       <c r="O73" s="12"/>
       <c r="P73" s="18"/>
-      <c r="Q73" s="34"/>
-      <c r="R73" s="3"/>
-      <c r="S73" s="1"/>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q73" s="18"/>
+      <c r="R73" s="34"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="1"/>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B74" s="2"/>
       <c r="C74" s="38"/>
       <c r="D74" s="29"/>
@@ -3683,11 +3810,12 @@
       <c r="N74" s="12"/>
       <c r="O74" s="12"/>
       <c r="P74" s="18"/>
-      <c r="Q74" s="34"/>
-      <c r="R74" s="3"/>
-      <c r="S74" s="1"/>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q74" s="18"/>
+      <c r="R74" s="34"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="1"/>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B75" s="2"/>
       <c r="C75" s="38"/>
       <c r="D75" s="29"/>
@@ -3703,11 +3831,12 @@
       <c r="N75" s="12"/>
       <c r="O75" s="12"/>
       <c r="P75" s="18"/>
-      <c r="Q75" s="34"/>
-      <c r="R75" s="3"/>
-      <c r="S75" s="1"/>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q75" s="18"/>
+      <c r="R75" s="34"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="1"/>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B76" s="2"/>
       <c r="C76" s="38"/>
       <c r="D76" s="29"/>
@@ -3723,11 +3852,12 @@
       <c r="N76" s="12"/>
       <c r="O76" s="12"/>
       <c r="P76" s="18"/>
-      <c r="Q76" s="34"/>
-      <c r="R76" s="3"/>
-      <c r="S76" s="1"/>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q76" s="18"/>
+      <c r="R76" s="34"/>
+      <c r="S76" s="3"/>
+      <c r="T76" s="1"/>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B77" s="2"/>
       <c r="C77" s="38"/>
       <c r="D77" s="29"/>
@@ -3743,11 +3873,12 @@
       <c r="N77" s="12"/>
       <c r="O77" s="12"/>
       <c r="P77" s="18"/>
-      <c r="Q77" s="34"/>
-      <c r="R77" s="3"/>
-      <c r="S77" s="1"/>
-    </row>
-    <row r="78" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q77" s="18"/>
+      <c r="R77" s="34"/>
+      <c r="S77" s="3"/>
+      <c r="T77" s="1"/>
+    </row>
+    <row r="78" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B78" s="2"/>
       <c r="C78" s="38"/>
       <c r="D78" s="29"/>
@@ -3763,11 +3894,12 @@
       <c r="N78" s="12"/>
       <c r="O78" s="12"/>
       <c r="P78" s="18"/>
-      <c r="Q78" s="34"/>
-      <c r="R78" s="3"/>
-      <c r="S78" s="1"/>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q78" s="18"/>
+      <c r="R78" s="34"/>
+      <c r="S78" s="3"/>
+      <c r="T78" s="1"/>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="2"/>
       <c r="C79" s="38"/>
       <c r="D79" s="29"/>
@@ -3783,11 +3915,12 @@
       <c r="N79" s="12"/>
       <c r="O79" s="12"/>
       <c r="P79" s="18"/>
-      <c r="Q79" s="34"/>
-      <c r="R79" s="3"/>
-      <c r="S79" s="1"/>
-    </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q79" s="18"/>
+      <c r="R79" s="34"/>
+      <c r="S79" s="3"/>
+      <c r="T79" s="1"/>
+    </row>
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B80" s="2"/>
       <c r="C80" s="38"/>
       <c r="D80" s="29"/>
@@ -3803,11 +3936,12 @@
       <c r="N80" s="12"/>
       <c r="O80" s="12"/>
       <c r="P80" s="18"/>
-      <c r="Q80" s="34"/>
-      <c r="R80" s="3"/>
-      <c r="S80" s="1"/>
-    </row>
-    <row r="81" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q80" s="18"/>
+      <c r="R80" s="34"/>
+      <c r="S80" s="3"/>
+      <c r="T80" s="1"/>
+    </row>
+    <row r="81" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B81" s="2"/>
       <c r="C81" s="38"/>
       <c r="D81" s="29"/>
@@ -3823,11 +3957,12 @@
       <c r="N81" s="12"/>
       <c r="O81" s="12"/>
       <c r="P81" s="18"/>
-      <c r="Q81" s="34"/>
-      <c r="R81" s="3"/>
-      <c r="S81" s="1"/>
-    </row>
-    <row r="82" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q81" s="18"/>
+      <c r="R81" s="34"/>
+      <c r="S81" s="3"/>
+      <c r="T81" s="1"/>
+    </row>
+    <row r="82" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B82" s="2"/>
       <c r="C82" s="38"/>
       <c r="D82" s="29"/>
@@ -3843,11 +3978,12 @@
       <c r="N82" s="12"/>
       <c r="O82" s="12"/>
       <c r="P82" s="18"/>
-      <c r="Q82" s="34"/>
-      <c r="R82" s="3"/>
-      <c r="S82" s="1"/>
-    </row>
-    <row r="83" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q82" s="18"/>
+      <c r="R82" s="34"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="1"/>
+    </row>
+    <row r="83" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B83" s="2"/>
       <c r="C83" s="38"/>
       <c r="D83" s="29"/>
@@ -3863,11 +3999,12 @@
       <c r="N83" s="12"/>
       <c r="O83" s="12"/>
       <c r="P83" s="18"/>
-      <c r="Q83" s="34"/>
-      <c r="R83" s="3"/>
-      <c r="S83" s="1"/>
-    </row>
-    <row r="84" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q83" s="18"/>
+      <c r="R83" s="34"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="1"/>
+    </row>
+    <row r="84" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B84" s="2"/>
       <c r="C84" s="38"/>
       <c r="D84" s="29"/>
@@ -3883,11 +4020,12 @@
       <c r="N84" s="12"/>
       <c r="O84" s="12"/>
       <c r="P84" s="18"/>
-      <c r="Q84" s="34"/>
-      <c r="R84" s="3"/>
-      <c r="S84" s="1"/>
-    </row>
-    <row r="85" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q84" s="18"/>
+      <c r="R84" s="34"/>
+      <c r="S84" s="3"/>
+      <c r="T84" s="1"/>
+    </row>
+    <row r="85" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B85" s="2"/>
       <c r="C85" s="38"/>
       <c r="D85" s="29"/>
@@ -3903,11 +4041,12 @@
       <c r="N85" s="12"/>
       <c r="O85" s="12"/>
       <c r="P85" s="18"/>
-      <c r="Q85" s="34"/>
-      <c r="R85" s="3"/>
-      <c r="S85" s="1"/>
-    </row>
-    <row r="86" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q85" s="18"/>
+      <c r="R85" s="34"/>
+      <c r="S85" s="3"/>
+      <c r="T85" s="1"/>
+    </row>
+    <row r="86" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B86" s="2"/>
       <c r="C86" s="38"/>
       <c r="D86" s="29"/>
@@ -3923,11 +4062,12 @@
       <c r="N86" s="12"/>
       <c r="O86" s="12"/>
       <c r="P86" s="18"/>
-      <c r="Q86" s="34"/>
-      <c r="R86" s="3"/>
-      <c r="S86" s="1"/>
-    </row>
-    <row r="87" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q86" s="18"/>
+      <c r="R86" s="34"/>
+      <c r="S86" s="3"/>
+      <c r="T86" s="1"/>
+    </row>
+    <row r="87" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B87" s="2"/>
       <c r="C87" s="38"/>
       <c r="D87" s="29"/>
@@ -3943,11 +4083,12 @@
       <c r="N87" s="12"/>
       <c r="O87" s="12"/>
       <c r="P87" s="18"/>
-      <c r="Q87" s="34"/>
-      <c r="R87" s="3"/>
-      <c r="S87" s="1"/>
-    </row>
-    <row r="88" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q87" s="18"/>
+      <c r="R87" s="34"/>
+      <c r="S87" s="3"/>
+      <c r="T87" s="1"/>
+    </row>
+    <row r="88" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B88" s="2"/>
       <c r="C88" s="38"/>
       <c r="D88" s="29"/>
@@ -3963,11 +4104,12 @@
       <c r="N88" s="12"/>
       <c r="O88" s="12"/>
       <c r="P88" s="18"/>
-      <c r="Q88" s="34"/>
-      <c r="R88" s="3"/>
-      <c r="S88" s="1"/>
-    </row>
-    <row r="89" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q88" s="18"/>
+      <c r="R88" s="34"/>
+      <c r="S88" s="3"/>
+      <c r="T88" s="1"/>
+    </row>
+    <row r="89" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B89" s="2"/>
       <c r="C89" s="38"/>
       <c r="D89" s="29"/>
@@ -3983,11 +4125,12 @@
       <c r="N89" s="12"/>
       <c r="O89" s="12"/>
       <c r="P89" s="18"/>
-      <c r="Q89" s="34"/>
-      <c r="R89" s="3"/>
-      <c r="S89" s="1"/>
-    </row>
-    <row r="90" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q89" s="18"/>
+      <c r="R89" s="34"/>
+      <c r="S89" s="3"/>
+      <c r="T89" s="1"/>
+    </row>
+    <row r="90" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B90" s="2"/>
       <c r="C90" s="38"/>
       <c r="D90" s="29"/>
@@ -4003,11 +4146,12 @@
       <c r="N90" s="12"/>
       <c r="O90" s="12"/>
       <c r="P90" s="18"/>
-      <c r="Q90" s="34"/>
-      <c r="R90" s="3"/>
-      <c r="S90" s="1"/>
-    </row>
-    <row r="91" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q90" s="18"/>
+      <c r="R90" s="34"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="1"/>
+    </row>
+    <row r="91" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B91" s="2"/>
       <c r="C91" s="38"/>
       <c r="D91" s="29"/>
@@ -4023,11 +4167,12 @@
       <c r="N91" s="12"/>
       <c r="O91" s="12"/>
       <c r="P91" s="18"/>
-      <c r="Q91" s="34"/>
-      <c r="R91" s="3"/>
-      <c r="S91" s="1"/>
-    </row>
-    <row r="92" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q91" s="18"/>
+      <c r="R91" s="34"/>
+      <c r="S91" s="3"/>
+      <c r="T91" s="1"/>
+    </row>
+    <row r="92" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B92" s="2"/>
       <c r="C92" s="38"/>
       <c r="D92" s="29"/>
@@ -4043,11 +4188,12 @@
       <c r="N92" s="12"/>
       <c r="O92" s="12"/>
       <c r="P92" s="18"/>
-      <c r="Q92" s="34"/>
-      <c r="R92" s="3"/>
-      <c r="S92" s="1"/>
-    </row>
-    <row r="93" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q92" s="18"/>
+      <c r="R92" s="34"/>
+      <c r="S92" s="3"/>
+      <c r="T92" s="1"/>
+    </row>
+    <row r="93" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B93" s="2"/>
       <c r="C93" s="38"/>
       <c r="D93" s="29"/>
@@ -4063,11 +4209,12 @@
       <c r="N93" s="12"/>
       <c r="O93" s="12"/>
       <c r="P93" s="18"/>
-      <c r="Q93" s="34"/>
-      <c r="R93" s="3"/>
-      <c r="S93" s="1"/>
-    </row>
-    <row r="94" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q93" s="18"/>
+      <c r="R93" s="34"/>
+      <c r="S93" s="3"/>
+      <c r="T93" s="1"/>
+    </row>
+    <row r="94" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B94" s="2"/>
       <c r="C94" s="38"/>
       <c r="D94" s="29"/>
@@ -4083,11 +4230,12 @@
       <c r="N94" s="12"/>
       <c r="O94" s="12"/>
       <c r="P94" s="18"/>
-      <c r="Q94" s="34"/>
-      <c r="R94" s="3"/>
-      <c r="S94" s="1"/>
-    </row>
-    <row r="95" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q94" s="18"/>
+      <c r="R94" s="34"/>
+      <c r="S94" s="3"/>
+      <c r="T94" s="1"/>
+    </row>
+    <row r="95" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B95" s="2"/>
       <c r="C95" s="38"/>
       <c r="D95" s="29"/>
@@ -4103,11 +4251,12 @@
       <c r="N95" s="12"/>
       <c r="O95" s="12"/>
       <c r="P95" s="18"/>
-      <c r="Q95" s="34"/>
-      <c r="R95" s="3"/>
-      <c r="S95" s="1"/>
-    </row>
-    <row r="96" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q95" s="18"/>
+      <c r="R95" s="34"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="1"/>
+    </row>
+    <row r="96" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B96" s="2"/>
       <c r="C96" s="38"/>
       <c r="D96" s="29"/>
@@ -4123,11 +4272,12 @@
       <c r="N96" s="12"/>
       <c r="O96" s="12"/>
       <c r="P96" s="18"/>
-      <c r="Q96" s="34"/>
-      <c r="R96" s="3"/>
-      <c r="S96" s="1"/>
-    </row>
-    <row r="97" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q96" s="18"/>
+      <c r="R96" s="34"/>
+      <c r="S96" s="3"/>
+      <c r="T96" s="1"/>
+    </row>
+    <row r="97" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B97" s="2"/>
       <c r="C97" s="38"/>
       <c r="D97" s="29"/>
@@ -4143,11 +4293,12 @@
       <c r="N97" s="12"/>
       <c r="O97" s="12"/>
       <c r="P97" s="18"/>
-      <c r="Q97" s="34"/>
-      <c r="R97" s="3"/>
-      <c r="S97" s="1"/>
-    </row>
-    <row r="98" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q97" s="18"/>
+      <c r="R97" s="34"/>
+      <c r="S97" s="3"/>
+      <c r="T97" s="1"/>
+    </row>
+    <row r="98" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B98" s="2"/>
       <c r="C98" s="38"/>
       <c r="D98" s="29"/>
@@ -4163,11 +4314,12 @@
       <c r="N98" s="12"/>
       <c r="O98" s="12"/>
       <c r="P98" s="18"/>
-      <c r="Q98" s="34"/>
-      <c r="R98" s="3"/>
-      <c r="S98" s="1"/>
-    </row>
-    <row r="99" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q98" s="18"/>
+      <c r="R98" s="34"/>
+      <c r="S98" s="3"/>
+      <c r="T98" s="1"/>
+    </row>
+    <row r="99" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B99" s="2"/>
       <c r="C99" s="38"/>
       <c r="D99" s="29"/>
@@ -4183,11 +4335,12 @@
       <c r="N99" s="12"/>
       <c r="O99" s="12"/>
       <c r="P99" s="18"/>
-      <c r="Q99" s="34"/>
-      <c r="R99" s="3"/>
-      <c r="S99" s="1"/>
-    </row>
-    <row r="100" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q99" s="18"/>
+      <c r="R99" s="34"/>
+      <c r="S99" s="3"/>
+      <c r="T99" s="1"/>
+    </row>
+    <row r="100" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B100" s="2"/>
       <c r="C100" s="38"/>
       <c r="D100" s="29"/>
@@ -4203,11 +4356,12 @@
       <c r="N100" s="12"/>
       <c r="O100" s="12"/>
       <c r="P100" s="18"/>
-      <c r="Q100" s="34"/>
-      <c r="R100" s="3"/>
-      <c r="S100" s="1"/>
-    </row>
-    <row r="101" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q100" s="18"/>
+      <c r="R100" s="34"/>
+      <c r="S100" s="3"/>
+      <c r="T100" s="1"/>
+    </row>
+    <row r="101" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B101" s="2"/>
       <c r="C101" s="38"/>
       <c r="D101" s="29"/>
@@ -4223,11 +4377,12 @@
       <c r="N101" s="12"/>
       <c r="O101" s="12"/>
       <c r="P101" s="18"/>
-      <c r="Q101" s="34"/>
-      <c r="R101" s="3"/>
-      <c r="S101" s="1"/>
-    </row>
-    <row r="102" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q101" s="18"/>
+      <c r="R101" s="34"/>
+      <c r="S101" s="3"/>
+      <c r="T101" s="1"/>
+    </row>
+    <row r="102" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B102" s="2"/>
       <c r="C102" s="38"/>
       <c r="D102" s="29"/>
@@ -4243,11 +4398,12 @@
       <c r="N102" s="12"/>
       <c r="O102" s="12"/>
       <c r="P102" s="18"/>
-      <c r="Q102" s="34"/>
-      <c r="R102" s="3"/>
-      <c r="S102" s="1"/>
-    </row>
-    <row r="103" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q102" s="18"/>
+      <c r="R102" s="34"/>
+      <c r="S102" s="3"/>
+      <c r="T102" s="1"/>
+    </row>
+    <row r="103" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B103" s="2"/>
       <c r="C103" s="38"/>
       <c r="D103" s="29"/>
@@ -4263,11 +4419,12 @@
       <c r="N103" s="12"/>
       <c r="O103" s="12"/>
       <c r="P103" s="18"/>
-      <c r="Q103" s="34"/>
-      <c r="R103" s="3"/>
-      <c r="S103" s="1"/>
-    </row>
-    <row r="104" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q103" s="18"/>
+      <c r="R103" s="34"/>
+      <c r="S103" s="3"/>
+      <c r="T103" s="1"/>
+    </row>
+    <row r="104" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B104" s="2"/>
       <c r="C104" s="38"/>
       <c r="D104" s="29"/>
@@ -4283,11 +4440,12 @@
       <c r="N104" s="12"/>
       <c r="O104" s="12"/>
       <c r="P104" s="18"/>
-      <c r="Q104" s="34"/>
-      <c r="R104" s="3"/>
-      <c r="S104" s="1"/>
-    </row>
-    <row r="105" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q104" s="18"/>
+      <c r="R104" s="34"/>
+      <c r="S104" s="3"/>
+      <c r="T104" s="1"/>
+    </row>
+    <row r="105" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B105" s="2"/>
       <c r="C105" s="4"/>
       <c r="D105" s="36"/>
@@ -4303,11 +4461,12 @@
       <c r="N105" s="12"/>
       <c r="O105" s="12"/>
       <c r="P105" s="18"/>
-      <c r="Q105" s="34"/>
-      <c r="R105" s="3"/>
-      <c r="S105" s="1"/>
-    </row>
-    <row r="106" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q105" s="18"/>
+      <c r="R105" s="34"/>
+      <c r="S105" s="3"/>
+      <c r="T105" s="1"/>
+    </row>
+    <row r="106" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B106" s="2"/>
       <c r="C106" s="4"/>
       <c r="D106" s="36"/>
@@ -4323,11 +4482,12 @@
       <c r="N106" s="12"/>
       <c r="O106" s="12"/>
       <c r="P106" s="18"/>
-      <c r="Q106" s="6"/>
-      <c r="R106" s="3"/>
-      <c r="S106" s="1"/>
-    </row>
-    <row r="107" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q106" s="18"/>
+      <c r="R106" s="6"/>
+      <c r="S106" s="3"/>
+      <c r="T106" s="1"/>
+    </row>
+    <row r="107" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B107" s="2"/>
       <c r="C107" s="4"/>
       <c r="D107" s="36"/>
@@ -4343,11 +4503,12 @@
       <c r="N107" s="12"/>
       <c r="O107" s="12"/>
       <c r="P107" s="18"/>
-      <c r="Q107" s="6"/>
-      <c r="R107" s="3"/>
-      <c r="S107" s="1"/>
-    </row>
-    <row r="108" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q107" s="18"/>
+      <c r="R107" s="6"/>
+      <c r="S107" s="3"/>
+      <c r="T107" s="1"/>
+    </row>
+    <row r="108" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B108" s="2"/>
       <c r="C108" s="4"/>
       <c r="D108" s="36"/>
@@ -4363,11 +4524,12 @@
       <c r="N108" s="12"/>
       <c r="O108" s="12"/>
       <c r="P108" s="18"/>
-      <c r="Q108" s="6"/>
-      <c r="R108" s="3"/>
-      <c r="S108" s="1"/>
-    </row>
-    <row r="109" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q108" s="18"/>
+      <c r="R108" s="6"/>
+      <c r="S108" s="3"/>
+      <c r="T108" s="1"/>
+    </row>
+    <row r="109" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B109" s="2"/>
       <c r="C109" s="4"/>
       <c r="D109" s="36"/>
@@ -4383,11 +4545,12 @@
       <c r="N109" s="12"/>
       <c r="O109" s="12"/>
       <c r="P109" s="18"/>
-      <c r="Q109" s="6"/>
-      <c r="R109" s="3"/>
-      <c r="S109" s="1"/>
-    </row>
-    <row r="110" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q109" s="18"/>
+      <c r="R109" s="6"/>
+      <c r="S109" s="3"/>
+      <c r="T109" s="1"/>
+    </row>
+    <row r="110" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B110" s="2"/>
       <c r="C110" s="4"/>
       <c r="D110" s="36"/>
@@ -4403,11 +4566,12 @@
       <c r="N110" s="12"/>
       <c r="O110" s="12"/>
       <c r="P110" s="18"/>
-      <c r="Q110" s="6"/>
-      <c r="R110" s="3"/>
-      <c r="S110" s="1"/>
-    </row>
-    <row r="111" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q110" s="18"/>
+      <c r="R110" s="6"/>
+      <c r="S110" s="3"/>
+      <c r="T110" s="1"/>
+    </row>
+    <row r="111" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B111" s="2"/>
       <c r="C111" s="4"/>
       <c r="D111" s="36"/>
@@ -4423,11 +4587,12 @@
       <c r="N111" s="12"/>
       <c r="O111" s="12"/>
       <c r="P111" s="18"/>
-      <c r="Q111" s="6"/>
-      <c r="R111" s="3"/>
-      <c r="S111" s="1"/>
-    </row>
-    <row r="112" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q111" s="18"/>
+      <c r="R111" s="6"/>
+      <c r="S111" s="3"/>
+      <c r="T111" s="1"/>
+    </row>
+    <row r="112" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B112" s="2"/>
       <c r="C112" s="4"/>
       <c r="D112" s="36"/>
@@ -4443,11 +4608,12 @@
       <c r="N112" s="12"/>
       <c r="O112" s="12"/>
       <c r="P112" s="18"/>
-      <c r="Q112" s="6"/>
-      <c r="R112" s="3"/>
-      <c r="S112" s="1"/>
-    </row>
-    <row r="113" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q112" s="18"/>
+      <c r="R112" s="6"/>
+      <c r="S112" s="3"/>
+      <c r="T112" s="1"/>
+    </row>
+    <row r="113" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B113" s="2"/>
       <c r="C113" s="4"/>
       <c r="D113" s="36"/>
@@ -4463,11 +4629,12 @@
       <c r="N113" s="12"/>
       <c r="O113" s="12"/>
       <c r="P113" s="18"/>
-      <c r="Q113" s="6"/>
-      <c r="R113" s="3"/>
-      <c r="S113" s="1"/>
-    </row>
-    <row r="114" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q113" s="18"/>
+      <c r="R113" s="6"/>
+      <c r="S113" s="3"/>
+      <c r="T113" s="1"/>
+    </row>
+    <row r="114" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B114" s="2"/>
       <c r="C114" s="4"/>
       <c r="D114" s="36"/>
@@ -4483,11 +4650,12 @@
       <c r="N114" s="12"/>
       <c r="O114" s="12"/>
       <c r="P114" s="18"/>
-      <c r="Q114" s="6"/>
-      <c r="R114" s="3"/>
-      <c r="S114" s="1"/>
-    </row>
-    <row r="115" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q114" s="18"/>
+      <c r="R114" s="6"/>
+      <c r="S114" s="3"/>
+      <c r="T114" s="1"/>
+    </row>
+    <row r="115" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B115" s="2"/>
       <c r="C115" s="4"/>
       <c r="D115" s="36"/>
@@ -4503,11 +4671,12 @@
       <c r="N115" s="12"/>
       <c r="O115" s="12"/>
       <c r="P115" s="18"/>
-      <c r="Q115" s="6"/>
-      <c r="R115" s="3"/>
-      <c r="S115" s="1"/>
-    </row>
-    <row r="116" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q115" s="18"/>
+      <c r="R115" s="6"/>
+      <c r="S115" s="3"/>
+      <c r="T115" s="1"/>
+    </row>
+    <row r="116" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B116" s="2"/>
       <c r="C116" s="4"/>
       <c r="D116" s="36"/>
@@ -4523,11 +4692,12 @@
       <c r="N116" s="12"/>
       <c r="O116" s="12"/>
       <c r="P116" s="18"/>
-      <c r="Q116" s="6"/>
-      <c r="R116" s="3"/>
-      <c r="S116" s="1"/>
-    </row>
-    <row r="117" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q116" s="18"/>
+      <c r="R116" s="6"/>
+      <c r="S116" s="3"/>
+      <c r="T116" s="1"/>
+    </row>
+    <row r="117" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B117" s="2"/>
       <c r="C117" s="4"/>
       <c r="D117" s="36"/>
@@ -4543,11 +4713,12 @@
       <c r="N117" s="12"/>
       <c r="O117" s="12"/>
       <c r="P117" s="18"/>
-      <c r="Q117" s="6"/>
-      <c r="R117" s="3"/>
-      <c r="S117" s="1"/>
-    </row>
-    <row r="118" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q117" s="18"/>
+      <c r="R117" s="6"/>
+      <c r="S117" s="3"/>
+      <c r="T117" s="1"/>
+    </row>
+    <row r="118" spans="2:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B118" s="2"/>
       <c r="C118" s="4"/>
       <c r="D118" s="36"/>
@@ -4563,36 +4734,38 @@
       <c r="N118" s="12"/>
       <c r="O118" s="12"/>
       <c r="P118" s="18"/>
-      <c r="Q118" s="6"/>
-      <c r="R118" s="3"/>
-      <c r="S118" s="1"/>
-    </row>
-    <row r="119" spans="2:19" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q118" s="18"/>
+      <c r="R118" s="6"/>
+      <c r="S118" s="3"/>
+      <c r="T118" s="1"/>
+    </row>
+    <row r="119" spans="2:20" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B119" s="2"/>
-      <c r="C119" s="69" t="s">
-        <v>16</v>
-      </c>
-      <c r="D119" s="70"/>
+      <c r="C119" s="71" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" s="72"/>
       <c r="E119" s="35">
         <f>COUNTA(O13:O118)-COUNTIF(O13:O118,"Not a Defect")</f>
         <v>0</v>
       </c>
-      <c r="F119" s="71"/>
-      <c r="G119" s="71"/>
-      <c r="H119" s="71"/>
-      <c r="I119" s="71"/>
-      <c r="J119" s="71"/>
-      <c r="K119" s="71"/>
-      <c r="L119" s="71"/>
-      <c r="M119" s="71"/>
-      <c r="N119" s="71"/>
-      <c r="O119" s="71"/>
-      <c r="P119" s="55"/>
-      <c r="Q119" s="56"/>
-      <c r="R119" s="55"/>
-      <c r="S119" s="1"/>
-    </row>
-    <row r="120" spans="2:19" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F119" s="73"/>
+      <c r="G119" s="73"/>
+      <c r="H119" s="73"/>
+      <c r="I119" s="73"/>
+      <c r="J119" s="73"/>
+      <c r="K119" s="73"/>
+      <c r="L119" s="73"/>
+      <c r="M119" s="73"/>
+      <c r="N119" s="73"/>
+      <c r="O119" s="73"/>
+      <c r="P119" s="57"/>
+      <c r="Q119" s="58"/>
+      <c r="R119" s="58"/>
+      <c r="S119" s="57"/>
+      <c r="T119" s="1"/>
+    </row>
+    <row r="120" spans="2:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -4608,20 +4781,21 @@
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
       <c r="P120" s="2"/>
-      <c r="Q120" s="41"/>
-      <c r="R120" s="2"/>
-      <c r="S120" s="1"/>
+      <c r="Q120" s="2"/>
+      <c r="R120" s="41"/>
+      <c r="S120" s="2"/>
+      <c r="T120" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:O7"/>
-    <mergeCell ref="C4:Q4"/>
+    <mergeCell ref="C4:R4"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="F5:O5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="F6:O6"/>
-    <mergeCell ref="P119:R119"/>
+    <mergeCell ref="P119:S119"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:O8"/>
     <mergeCell ref="C9:E9"/>
@@ -4690,7 +4864,7 @@
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please Select type of Detect" sqref="G46:G118 G34:G44 G28:G31 G12:G26">
       <formula1>" Coding Standard not Followed  ,Duplicate Resource , Is exception handling done?, Pre define Library not Use , Value Folder Not use ,  Inefficient Coding , Expensive Code , Ui Differ,Functionality not as per Expectation,No hardcode values are used"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R9">
       <formula1>"Inspect Code ( Tool ) , Senior Review,Peer Review, Final Review"</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please Select type of Detect" sqref="G45 G27 G32:G33">
@@ -4699,11 +4873,11 @@
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Please Select type of Detect" sqref="H12:H118">
       <formula1>"Blocker , High , Low ,Medium "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J12:J118">
-      <formula1>"Yes, No"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O12:O118">
       <formula1>Error_Status</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I11:I14">
+      <formula1>"Open, In progress, Closed"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -4711,9 +4885,10 @@
     <hyperlink ref="F9" r:id="rId2"/>
     <hyperlink ref="D12" r:id="rId3"/>
     <hyperlink ref="D13" r:id="rId4"/>
+    <hyperlink ref="D14" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -4755,18 +4930,18 @@
     </row>
     <row r="3" spans="2:13" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="19"/>
-      <c r="C3" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="88"/>
+      <c r="C3" s="88" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="90"/>
       <c r="M3" s="19"/>
     </row>
     <row r="4" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4774,17 +4949,17 @@
       <c r="C4" s="15">
         <v>1</v>
       </c>
-      <c r="D4" s="80" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="89"/>
+      <c r="D4" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+      <c r="L4" s="91"/>
       <c r="M4" s="19"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
@@ -4792,17 +4967,17 @@
       <c r="C5" s="16">
         <v>2</v>
       </c>
-      <c r="D5" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="85"/>
+      <c r="D5" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="87"/>
       <c r="M5" s="19"/>
     </row>
     <row r="6" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -4810,17 +4985,17 @@
       <c r="C6" s="16">
         <v>3</v>
       </c>
-      <c r="D6" s="83" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="84"/>
+      <c r="D6" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="86"/>
       <c r="M6" s="19"/>
     </row>
     <row r="7" spans="2:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4828,17 +5003,17 @@
       <c r="C7" s="16">
         <v>4</v>
       </c>
-      <c r="D7" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="85"/>
+      <c r="D7" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="87"/>
       <c r="M7" s="19"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -4846,17 +5021,17 @@
       <c r="C8" s="16">
         <v>5</v>
       </c>
-      <c r="D8" s="83" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="83"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="84"/>
+      <c r="D8" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="86"/>
       <c r="M8" s="19"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
@@ -4864,17 +5039,17 @@
       <c r="C9" s="16">
         <v>6</v>
       </c>
-      <c r="D9" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="84"/>
+      <c r="D9" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="86"/>
       <c r="M9" s="19"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
@@ -4884,15 +5059,15 @@
       <c r="E10" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="60" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="85"/>
+      <c r="F10" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="63"/>
+      <c r="L10" s="87"/>
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
@@ -4900,17 +5075,17 @@
       <c r="C11" s="16"/>
       <c r="D11" s="5"/>
       <c r="E11" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="85"/>
+        <v>8</v>
+      </c>
+      <c r="F11" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="87"/>
       <c r="M11" s="19"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
@@ -4920,15 +5095,15 @@
       <c r="E12" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="60" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="85"/>
+      <c r="F12" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="87"/>
       <c r="M12" s="19"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
@@ -4938,15 +5113,15 @@
       <c r="E13" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="85"/>
+      <c r="F13" s="62" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="87"/>
       <c r="M13" s="19"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
@@ -4954,17 +5129,17 @@
       <c r="C14" s="16"/>
       <c r="D14" s="5"/>
       <c r="E14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="85"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="87"/>
       <c r="M14" s="19"/>
     </row>
     <row r="15" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -4972,17 +5147,17 @@
       <c r="C15" s="17">
         <v>7</v>
       </c>
-      <c r="D15" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="85"/>
+      <c r="D15" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="87"/>
       <c r="M15" s="19"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
@@ -4990,17 +5165,17 @@
       <c r="C16" s="17">
         <v>8</v>
       </c>
-      <c r="D16" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="85"/>
+      <c r="D16" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="87"/>
       <c r="M16" s="19"/>
     </row>
     <row r="17" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -5008,17 +5183,17 @@
       <c r="C17" s="21">
         <v>9</v>
       </c>
-      <c r="D17" s="90" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="92"/>
+      <c r="D17" s="92" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="94"/>
       <c r="M17" s="19"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.2">
